--- a/test/reader/dong_ying/output2.xlsx
+++ b/test/reader/dong_ying/output2.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,17 +905,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>F105-2</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20L159501</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22L185708</t>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -924,28 +924,30 @@
       <c r="E15" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['10502母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>F756-7</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21L176002</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>21L163610</t>
         </is>
@@ -954,7 +956,7 @@
         <v>45026</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F16" t="n">
         <v/>
@@ -964,14 +966,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['75607母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>&lt;216&gt;</t>
+          <t>F105-2</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -979,41 +981,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21L163610</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v/>
       </c>
       <c r="G17" t="n">
         <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['216母豬資料不在資料庫中']</t>
+          <t>['10502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Y1973-1</t>
+          <t>F756-7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1030,86 +1030,84 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['197301母豬資料不在資料庫中']</t>
+          <t>['75607母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>F862-3</t>
+          <t>&lt;216&gt;</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22L185708</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45027</v>
+        <v>45026</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F19" t="n">
-        <v/>
+        <v>0.75</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['86203母豬資料不在資料庫中']</t>
+          <t>['216母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>&lt;215&gt;</t>
+          <t>Y1973-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45027</v>
+        <v>45026</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>多未上汰</t>
-        </is>
+        <v>0.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+      <c r="G20" t="n">
+        <v/>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['215母豬資料不在資料庫中']</t>
+          <t>['197301母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1009-1</t>
+          <t>F862-3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1130,26 +1128,26 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['100901母豬資料不在資料庫中']</t>
+          <t>['86203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1618-3</t>
+          <t>&lt;215&gt;</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45029</v>
+        <v>45027</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1166,26 +1164,26 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['161803母豬資料不在資料庫中']</t>
+          <t>['215母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1432-2</t>
+          <t>1009-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45032</v>
+        <v>45027</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1198,58 +1196,62 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['143202母豬資料不在資料庫中']</t>
+          <t>['100901母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1801-4</t>
+          <t>1618-3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45032</v>
+        <v>45029</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F24" t="n">
-        <v/>
-      </c>
-      <c r="G24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>多未上汰</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['180104母豬資料不在資料庫中']</t>
+          <t>['161803母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>F&lt;211&gt;</t>
+          <t>1432-2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45033</v>
+        <v>45032</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1262,14 +1264,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['211母豬資料不在資料庫中']</t>
+          <t>['143202母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1866-3</t>
+          <t>1801-4</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1277,11 +1279,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45033</v>
+        <v>45032</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1294,14 +1296,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['186603母豬資料不在資料庫中']</t>
+          <t>['180104母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>F592-5</t>
+          <t>F&lt;211&gt;</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1326,14 +1328,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['59205母豬資料不在資料庫中']</t>
+          <t>['211母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1877-4</t>
+          <t>1866-3</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1341,7 +1343,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1358,22 +1360,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['187704母豬資料不在資料庫中']</t>
+          <t>['186603母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1988-4</t>
+          <t>F592-5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1390,22 +1392,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['198804母豬資料不在資料庫中']</t>
+          <t>['59205母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1293-5</t>
+          <t>1877-4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21Y175804</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1422,26 +1424,26 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['129305母豬資料不在資料庫中']</t>
+          <t>['187704母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>F702-3</t>
+          <t>1988-4</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1454,18 +1456,18 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['70203母豬資料不在資料庫中']</t>
+          <t>['198804母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>F&lt;78&gt;</t>
+          <t>1293-5</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1473,7 +1475,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1486,22 +1488,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['78母豬資料不在資料庫中']</t>
+          <t>['129305母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>F828-2</t>
+          <t>F702-3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21L163405</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -1518,26 +1520,26 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['82802母豬資料不在資料庫中']</t>
+          <t>['70203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>F&lt;243&gt;</t>
+          <t>F&lt;78&gt;</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21L162314</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45035</v>
+        <v>45034</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1550,26 +1552,26 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['243母豬資料不在資料庫中']</t>
+          <t>['78母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1879-7</t>
+          <t>F828-2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>21L163405</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1582,26 +1584,26 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['187907母豬資料不在資料庫中']</t>
+          <t>['82802母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>F560-1</t>
+          <t>F&lt;243&gt;</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>21L162314</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45040</v>
+        <v>45035</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1614,22 +1616,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['56001母豬資料不在資料庫中']</t>
+          <t>['243母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1787-9</t>
+          <t>1879-7</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21L162314</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1646,22 +1648,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['178709母豬資料不在資料庫中']</t>
+          <t>['187907母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1995-6</t>
+          <t>F560-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21L162314</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1678,18 +1680,18 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['199506母豬資料不在資料庫中']</t>
+          <t>['56001母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1952-8</t>
+          <t>1787-9</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1710,26 +1712,26 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['195208母豬資料不在資料庫中']</t>
+          <t>['178709母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1480-7</t>
+          <t>1995-6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22L189604</t>
+          <t>21L162314</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45041</v>
+        <v>45040</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1742,26 +1744,26 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['148007母豬資料不在資料庫中']</t>
+          <t>['199506母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1877-3</t>
+          <t>1952-8</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>21L162314</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45041</v>
+        <v>45040</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1774,22 +1776,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['187703母豬資料不在資料庫中']</t>
+          <t>['195208母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1646-2</t>
+          <t>1480-7</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>21L163610</t>
+          <t>22L189604</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1798,36 +1800,34 @@
       <c r="E42" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['164602母豬資料不在資料庫中']</t>
+          <t>['148007母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>862-4</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>21Y182103</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v/>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>21Y175804</t>
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45047</v>
+        <v>45041</v>
       </c>
       <c r="E43" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1840,92 +1840,92 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['86204母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1215-2</t>
+          <t>1877-3</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['121502母豬資料不在資料庫中']</t>
+          <t>['187703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>1410-2</t>
+          <t>1646-2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['141002母豬資料不在資料庫中']</t>
+          <t>['164602母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1318-4</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>21L169304</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v/>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>22Y191309</t>
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1938,14 +1938,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['131804母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Y1839-7</t>
+          <t>862-4</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1953,11 +1953,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22L185708</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45051</v>
+        <v>45047</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -1970,14 +1970,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['183907母豬資料不在資料庫中']</t>
+          <t>['86204母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>1486-3</t>
+          <t>1215-2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1985,31 +1985,33 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45053</v>
+        <v>45048</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['148603母豬資料不在資料庫中']</t>
+          <t>['121502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>1866-4</t>
+          <t>1410-2</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2017,11 +2019,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21L166315</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45054</v>
+        <v>45048</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2034,14 +2036,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['186604母豬資料不在資料庫中']</t>
+          <t>['141002母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1736-3</t>
+          <t>1318-4</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2049,11 +2051,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45054</v>
+        <v>45048</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2066,14 +2068,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['173603母豬資料不在資料庫中']</t>
+          <t>['131804母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>1879-2</t>
+          <t>Y1839-7</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2081,11 +2083,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45054</v>
+        <v>45051</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2098,14 +2100,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['187902母豬資料不在資料庫中']</t>
+          <t>['183907母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1423-1</t>
+          <t>1486-3</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2113,11 +2115,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>21L166315</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45054</v>
+        <v>45053</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2130,14 +2132,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['142301母豬資料不在資料庫中']</t>
+          <t>['148603母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>&lt;85&gt;</t>
+          <t>1866-4</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2145,7 +2147,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20Y151509</t>
+          <t>21L166315</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -2162,14 +2164,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['85母豬資料不在資料庫中']</t>
+          <t>['186604母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>1978-5</t>
+          <t>1736-3</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2177,7 +2179,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20Y151509</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -2186,24 +2188,22 @@
       <c r="E54" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F54" t="n">
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['197805母豬資料不在資料庫中']</t>
+          <t>['173603母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>1958-1</t>
+          <t>1879-2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2220,24 +2220,22 @@
       <c r="E55" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F55" t="n">
+        <v/>
       </c>
       <c r="G55" t="n">
         <v/>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['195801母豬資料不在資料庫中']</t>
+          <t>['187902母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>1874-4</t>
+          <t>1423-1</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2245,11 +2243,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>21L166315</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45055</v>
+        <v>45054</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2262,14 +2260,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['187404母豬資料不在資料庫中']</t>
+          <t>['142301母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>1840-3</t>
+          <t>&lt;85&gt;</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2277,11 +2275,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>20Y151509</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45055</v>
+        <v>45054</v>
       </c>
       <c r="E57" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2294,14 +2292,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['184003母豬資料不在資料庫中']</t>
+          <t>['85母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>1989-6</t>
+          <t>1978-5</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2309,35 +2307,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>20Y151509</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45055</v>
+        <v>45054</v>
       </c>
       <c r="E58" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>流產正常</t>
-        </is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v/>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['198906母豬資料不在資料庫中']</t>
+          <t>['197805母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>1738-2</t>
+          <t>1958-1</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2345,31 +2341,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22L198006</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45056</v>
+        <v>45054</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['173802母豬資料不在資料庫中']</t>
+          <t>['195801母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>1883-4</t>
+          <t>1874-4</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2377,33 +2375,31 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>22L198006</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="E60" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['188304母豬資料不在資料庫中']</t>
+          <t>['187404母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>&lt;216&gt;</t>
+          <t>1840-3</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2411,11 +2407,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22L198006</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="E61" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2428,14 +2424,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['216母豬資料不在資料庫中']</t>
+          <t>['184003母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>1594-1</t>
+          <t>1989-6</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2443,31 +2439,35 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45056</v>
+        <v>45055</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F62" t="n">
-        <v/>
-      </c>
-      <c r="G62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>流產正常</t>
+        </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['159401母豬資料不在資料庫中']</t>
+          <t>['198906母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>1848-3</t>
+          <t>1738-2</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2475,11 +2475,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>22L198006</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="E63" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2492,14 +2492,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['184803母豬資料不在資料庫中']</t>
+          <t>['173802母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>1997-5</t>
+          <t>1883-4</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2507,31 +2507,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>22L198006</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="E64" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['199705母豬資料不在資料庫中']</t>
+          <t>['188304母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>1917-3</t>
+          <t>&lt;216&gt;</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2539,11 +2541,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22L198006</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45058</v>
+        <v>45056</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2556,14 +2558,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['191703母豬資料不在資料庫中']</t>
+          <t>['216母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>1262-1</t>
+          <t>1594-1</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2571,11 +2573,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45060</v>
+        <v>45056</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2588,14 +2590,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['126201母豬資料不在資料庫中']</t>
+          <t>['159401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>1700-3</t>
+          <t>1848-3</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2603,11 +2605,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45060</v>
+        <v>45057</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2620,14 +2622,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['170003母豬資料不在資料庫中']</t>
+          <t>['184803母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>1709-2</t>
+          <t>1997-5</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2635,11 +2637,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45061</v>
+        <v>45057</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2652,14 +2654,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['170902母豬資料不在資料庫中']</t>
+          <t>['199705母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>51-4</t>
+          <t>1917-3</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2667,33 +2669,31 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45061</v>
+        <v>45058</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F69" t="n">
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['5104母豬資料不在資料庫中']</t>
+          <t>['191703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>&lt;209&gt;</t>
+          <t>1262-1</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45061</v>
+        <v>45060</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2718,14 +2718,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['209母豬資料不在資料庫中']</t>
+          <t>['126201母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>1978-1</t>
+          <t>1700-3</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45061</v>
+        <v>45060</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2750,14 +2750,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['197801母豬資料不在資料庫中']</t>
+          <t>['170003母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>1591-5</t>
+          <t>1709-2</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -2782,14 +2782,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['159105母豬資料不在資料庫中']</t>
+          <t>['170902母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>1857-4</t>
+          <t>51-4</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2797,31 +2797,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F73" t="n">
-        <v/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v/>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['185704母豬資料不在資料庫中']</t>
+          <t>['5104母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>1970-1</t>
+          <t>&lt;209&gt;</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2829,11 +2831,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="E74" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2846,14 +2848,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['197001母豬資料不在資料庫中']</t>
+          <t>['209母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>1999-5</t>
+          <t>1978-1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2861,11 +2863,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2878,14 +2880,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['199905母豬資料不在資料庫中']</t>
+          <t>['197801母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>1793-1</t>
+          <t>1591-5</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2893,11 +2895,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21L180905</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45062</v>
+        <v>45061</v>
       </c>
       <c r="E76" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2910,14 +2912,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['179301母豬資料不在資料庫中']</t>
+          <t>['159105母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>1979-2</t>
+          <t>1857-4</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2925,11 +2927,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2942,14 +2944,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['197902母豬資料不在資料庫中']</t>
+          <t>['185704母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>152-6</t>
+          <t>1970-1</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2957,11 +2959,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -2974,14 +2976,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['15206母豬資料不在資料庫中']</t>
+          <t>['197001母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>864-1</t>
+          <t>1999-5</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2989,11 +2991,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -3006,14 +3008,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['86401母豬資料不在資料庫中']</t>
+          <t>['199905母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>300-1</t>
+          <t>1793-1</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3021,11 +3023,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>21L180905</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45068</v>
+        <v>45062</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>0.6666666666666666</v>
@@ -3038,14 +3040,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['30001母豬資料不在資料庫中']</t>
+          <t>['179301母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>1976-1</t>
+          <t>1979-2</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3053,7 +3055,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>22L183206</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -3062,24 +3064,22 @@
       <c r="E81" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="F81" t="n">
+        <v/>
       </c>
       <c r="G81" t="n">
         <v/>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['197601母豬資料不在資料庫中']</t>
+          <t>['197902母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>1673-4</t>
+          <t>152-6</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45069</v>
-      </c>
-      <c r="E82" t="n">
-        <v/>
+        <v>45068</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F82" t="n">
         <v/>
@@ -3104,14 +3104,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['167304母豬資料不在資料庫中']</t>
+          <t>['15206母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>1596-6</t>
+          <t>864-1</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3119,14 +3119,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45071</v>
-      </c>
-      <c r="E83" t="n">
-        <v/>
+        <v>45068</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F83" t="n">
         <v/>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['159606母豬資料不在資料庫中']</t>
+          <t>['86401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>1646-2</t>
+          <t>300-1</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3151,31 +3151,31 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>21L163610</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45072</v>
-      </c>
-      <c r="E84" t="n">
-        <v/>
+        <v>45068</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['164602母豬資料不在資料庫中']</t>
+          <t>['30001母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>1866-2</t>
+          <t>1976-1</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3183,31 +3183,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>22L183206</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45073</v>
-      </c>
-      <c r="E85" t="n">
-        <v/>
-      </c>
-      <c r="F85" t="n">
-        <v/>
+        <v>45068</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v/>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['186602母豬資料不在資料庫中']</t>
+          <t>['197601母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>1973-2</t>
+          <t>1673-4</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3215,11 +3217,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45073</v>
+        <v>45069</v>
       </c>
       <c r="E86" t="n">
         <v/>
@@ -3232,26 +3234,26 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['197302母豬資料不在資料庫中']</t>
+          <t>['167304母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1881-7</t>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>18L199205</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v/>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>22Y188305</t>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45075</v>
+        <v>45070</v>
       </c>
       <c r="E87" t="n">
         <v/>
@@ -3264,14 +3266,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['188107母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>1612-3</t>
+          <t>1596-6</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3279,11 +3281,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45075</v>
+        <v>45071</v>
       </c>
       <c r="E88" t="n">
         <v/>
@@ -3296,14 +3298,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['161203母豬資料不在資料庫中']</t>
+          <t>['159606母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>1881-3</t>
+          <t>1646-2</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3311,31 +3313,31 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>21L180905</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45075</v>
+        <v>45072</v>
       </c>
       <c r="E89" t="n">
         <v/>
       </c>
       <c r="F89" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v/>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['188103母豬資料不在資料庫中']</t>
+          <t>['164602母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>1596-6</t>
+          <t>1866-2</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3343,11 +3345,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45075</v>
+        <v>45073</v>
       </c>
       <c r="E90" t="n">
         <v/>
@@ -3360,14 +3362,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['159606母豬資料不在資料庫中']</t>
+          <t>['186602母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>&lt;205&gt;</t>
+          <t>1973-2</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3375,11 +3377,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45075</v>
+        <v>45073</v>
       </c>
       <c r="E91" t="n">
         <v/>
@@ -3392,14 +3394,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['205母豬資料不在資料庫中']</t>
+          <t>['197302母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>495-2</t>
+          <t>1881-7</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3407,7 +3409,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>21L180905</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -3424,14 +3426,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['49502母豬資料不在資料庫中']</t>
+          <t>['188107母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>1992-3</t>
+          <t>1612-3</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3456,14 +3458,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['199203母豬資料不在資料庫中']</t>
+          <t>['161203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>1612-3</t>
+          <t>1881-3</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3471,35 +3473,31 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>21L180905</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45076</v>
+        <v>45075</v>
       </c>
       <c r="E94" t="n">
         <v/>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>多未上汰</t>
-        </is>
+      <c r="F94" t="n">
+        <v/>
+      </c>
+      <c r="G94" t="n">
+        <v/>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['161203母豬資料不在資料庫中']</t>
+          <t>['188103母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>1883-4</t>
+          <t>1596-6</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3507,11 +3505,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>21L166315</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="E95" t="n">
         <v/>
@@ -3524,14 +3522,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['188304母豬資料不在資料庫中']</t>
+          <t>['159606母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>1794-1</t>
+          <t>&lt;205&gt;</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3539,11 +3537,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="E96" t="n">
         <v/>
@@ -3556,14 +3554,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['179401母豬資料不在資料庫中']</t>
+          <t>['205母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>1977-2</t>
+          <t>495-2</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3571,11 +3569,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>22L185708</t>
+          <t>21L180905</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45078</v>
+        <v>45075</v>
       </c>
       <c r="E97" t="n">
         <v/>
@@ -3588,14 +3586,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['197702母豬資料不在資料庫中']</t>
+          <t>['49502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>1881-1</t>
+          <t>1992-3</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3603,11 +3601,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45079</v>
+        <v>45075</v>
       </c>
       <c r="E98" t="n">
         <v/>
@@ -3620,14 +3618,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['188101母豬資料不在資料庫中']</t>
+          <t>['199203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>57-6</t>
+          <t>1612-3</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3635,31 +3633,35 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45082</v>
+        <v>45076</v>
       </c>
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
-      </c>
-      <c r="G99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>多未上汰</t>
+        </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['5706母豬資料不在資料庫中']</t>
+          <t>['161203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>&lt;220&gt;</t>
+          <t>1883-4</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3667,35 +3669,31 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>21L166315</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45082</v>
+        <v>45077</v>
       </c>
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>流產(正常)</t>
-        </is>
+      <c r="F100" t="n">
+        <v/>
+      </c>
+      <c r="G100" t="n">
+        <v/>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['220母豬資料不在資料庫中']</t>
+          <t>['188304母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>&lt;218&gt;</t>
+          <t>1794-1</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3703,11 +3701,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20L145710</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45082</v>
+        <v>45077</v>
       </c>
       <c r="E101" t="n">
         <v/>
@@ -3720,14 +3718,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['218母豬資料不在資料庫中']</t>
+          <t>['179401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>1881-2</t>
+          <t>1977-2</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3735,11 +3733,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>22Y194113</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="E102" t="n">
         <v/>
@@ -3752,14 +3750,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['188102母豬資料不在資料庫中']</t>
+          <t>['197702母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>&lt;204&gt;</t>
+          <t>1881-1</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3767,11 +3765,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="E103" t="n">
         <v/>
@@ -3784,14 +3782,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['204母豬資料不在資料庫中']</t>
+          <t>['188101母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>1707-2</t>
+          <t>57-6</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3816,14 +3814,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['170702母豬資料不在資料庫中']</t>
+          <t>['5706母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>457-2</t>
+          <t>&lt;220&gt;</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3831,7 +3829,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -3840,22 +3838,26 @@
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="n">
-        <v/>
-      </c>
-      <c r="G105" t="n">
-        <v/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>流產(正常)</t>
+        </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['45702母豬資料不在資料庫中']</t>
+          <t>['220母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>1842-1</t>
+          <t>&lt;218&gt;</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3863,7 +3865,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -3880,14 +3882,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['184201母豬資料不在資料庫中']</t>
+          <t>['218母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>1926-5</t>
+          <t>1881-2</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3895,7 +3897,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>20L145710</t>
+          <t>22Y194113</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -3912,14 +3914,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['192605母豬資料不在資料庫中']</t>
+          <t>['188102母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>1907-8</t>
+          <t>&lt;204&gt;</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3927,7 +3929,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -3944,50 +3946,46 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['190708母豬資料不在資料庫中']</t>
+          <t>['204母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>51-4</t>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1611-3</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v/>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>1972-6</t>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>22Y194113</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="E109" t="n">
         <v/>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+      <c r="G109" t="n">
+        <v/>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['5104母豬資料不在資料庫中']</t>
+          <t>['194113公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>1004-3</t>
+          <t>1707-2</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3995,11 +3993,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="E110" t="n">
         <v/>
@@ -4012,14 +4010,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['100403母豬資料不在資料庫中']</t>
+          <t>['170702母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>1998-2</t>
+          <t>457-2</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4027,11 +4025,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="E111" t="n">
         <v/>
@@ -4044,14 +4042,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['199802母豬資料不在資料庫中']</t>
+          <t>['45702母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>1668-4</t>
+          <t>1842-1</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4059,11 +4057,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1912-12仁桃</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="E112" t="n">
         <v/>
@@ -4076,14 +4074,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['166804母豬資料不在資料庫中']</t>
+          <t>['184201母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>1992-6</t>
+          <t>1926-5</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4091,11 +4089,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="E113" t="n">
         <v/>
@@ -4108,14 +4106,14 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['199206母豬資料不在資料庫中']</t>
+          <t>['192605母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>1960-3</t>
+          <t>1907-8</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4123,11 +4121,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="E114" t="n">
         <v/>
@@ -4140,14 +4138,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['196003母豬資料不在資料庫中']</t>
+          <t>['190708母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>1998-6</t>
+          <t>51-4</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4155,31 +4153,35 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="n">
-        <v/>
-      </c>
-      <c r="G115" t="n">
-        <v/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['199806母豬資料不在資料庫中']</t>
+          <t>['5104母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>1974-1</t>
+          <t>1004-3</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4187,35 +4189,31 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>22Y183108</t>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+      <c r="G116" t="n">
+        <v/>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['197401母豬資料不在資料庫中']</t>
+          <t>['100403母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>1990-2</t>
+          <t>1998-2</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4223,11 +4221,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20Y151509</t>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="E117" t="n">
         <v/>
@@ -4240,14 +4238,14 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['199002母豬資料不在資料庫中']</t>
+          <t>['199802母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>1995-3</t>
+          <t>1668-4</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4255,11 +4253,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>1912-12仁桃</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="E118" t="n">
         <v/>
@@ -4272,26 +4270,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['199503母豬資料不在資料庫中']</t>
+          <t>['166804母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1371-5</t>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1430-3</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v/>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>22L184811</t>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>22L191212</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45088</v>
+        <v>45085</v>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -4308,14 +4306,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['137105母豬資料不在資料庫中']</t>
+          <t>['191212公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>1404-6</t>
+          <t>1992-6</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4323,11 +4321,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E120" t="n">
         <v/>
@@ -4340,14 +4338,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['140406母豬資料不在資料庫中']</t>
+          <t>['199206母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>724-1</t>
+          <t>1960-3</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4355,11 +4353,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>22L197006</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E121" t="n">
         <v/>
@@ -4372,14 +4370,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['72401母豬資料不在資料庫中']</t>
+          <t>['196003母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>&lt;224&gt;</t>
+          <t>1998-6</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4387,11 +4385,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>21Y175804</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E122" t="n">
         <v/>
@@ -4404,14 +4402,14 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['224母豬資料不在資料庫中']</t>
+          <t>['199806母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>&lt;227&gt;</t>
+          <t>1974-1</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4419,31 +4417,35 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>22L197006</t>
+          <t>22Y183108</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E123" t="n">
         <v/>
       </c>
-      <c r="F123" t="n">
-        <v/>
-      </c>
-      <c r="G123" t="n">
-        <v/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['227母豬資料不在資料庫中']</t>
+          <t>['197401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>&lt;206&gt;</t>
+          <t>1990-2</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4451,11 +4453,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>20Y151509</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E124" t="n">
         <v/>
@@ -4468,14 +4470,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['206母豬資料不在資料庫中']</t>
+          <t>['199002母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>400-7</t>
+          <t>1995-3</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4483,11 +4485,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="E125" t="n">
         <v/>
@@ -4500,14 +4502,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['40007母豬資料不在資料庫中']</t>
+          <t>['199503母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>&lt;201&gt;</t>
+          <t>1371-5</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4515,31 +4517,35 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>22L197006</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="E126" t="n">
         <v/>
       </c>
-      <c r="F126" t="n">
-        <v/>
-      </c>
-      <c r="G126" t="n">
-        <v/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['201母豬資料不在資料庫中']</t>
+          <t>['137105母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>1967-6</t>
+          <t>1404-6</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4564,22 +4570,22 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['196706母豬資料不在資料庫中']</t>
+          <t>['140406母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1614-1</t>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1514-5</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v/>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>21Y175804</t>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['161401母豬資料不在資料庫中']</t>
+          <t>['197006公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>1410-3</t>
+          <t>724-1</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4611,7 +4617,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>22Y188305</t>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -4628,14 +4634,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['141003母豬資料不在資料庫中']</t>
+          <t>['72401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>1564-5</t>
+          <t>&lt;224&gt;</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4643,7 +4649,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>22L197006</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
@@ -4660,14 +4666,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['156405母豬資料不在資料庫中']</t>
+          <t>['224母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>875-7</t>
+          <t>&lt;227&gt;</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4675,11 +4681,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="E131" t="n">
         <v/>
@@ -4692,14 +4698,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['87507母豬資料不在資料庫中']</t>
+          <t>['227母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>1992-4</t>
+          <t>&lt;206&gt;</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4707,11 +4713,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="E132" t="n">
         <v/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['199204母豬資料不在資料庫中']</t>
+          <t>['206母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>730-15</t>
+          <t>400-7</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4739,35 +4745,31 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>22L183206</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="E133" t="n">
         <v/>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="n">
+        <v/>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['73015母豬資料不在資料庫中']</t>
+          <t>['40007母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>1585-12</t>
+          <t>&lt;201&gt;</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4775,11 +4777,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>22L183206</t>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E134" t="n">
         <v/>
@@ -4792,14 +4794,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['158512母豬資料不在資料庫中']</t>
+          <t>['201母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>&lt;89&gt;</t>
+          <t>1967-6</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4807,11 +4809,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E135" t="n">
         <v/>
@@ -4824,14 +4826,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['89母豬資料不在資料庫中']</t>
+          <t>['196706母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>1978-5</t>
+          <t>1614-1</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4839,11 +4841,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E136" t="n">
         <v/>
@@ -4856,14 +4858,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['197805母豬資料不在資料庫中']</t>
+          <t>['161401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>1215-2</t>
+          <t>1410-3</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4871,11 +4873,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>22L183206</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E137" t="n">
         <v/>
@@ -4888,14 +4890,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['121502母豬資料不在資料庫中']</t>
+          <t>['141003母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>1802-2</t>
+          <t>1564-5</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4903,11 +4905,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="E138" t="n">
         <v/>
@@ -4920,14 +4922,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['180202母豬資料不在資料庫中']</t>
+          <t>['156405母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>1247-3</t>
+          <t>875-7</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4935,11 +4937,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>22L183206</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="E139" t="n">
         <v/>
@@ -4952,14 +4954,14 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['124703母豬資料不在資料庫中']</t>
+          <t>['87507母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>501-8</t>
+          <t>1992-4</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4967,11 +4969,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="E140" t="n">
         <v/>
@@ -4984,14 +4986,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['50108母豬資料不在資料庫中']</t>
+          <t>['199204母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>1967-3</t>
+          <t>730-15</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4999,31 +5001,35 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>22L183206</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="E141" t="n">
         <v/>
       </c>
-      <c r="F141" t="n">
-        <v/>
-      </c>
-      <c r="G141" t="n">
-        <v/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['196703母豬資料不在資料庫中']</t>
+          <t>['73015母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>1038-11</t>
+          <t>1585-12</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5031,11 +5037,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>21L163610</t>
+          <t>22L183206</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="E142" t="n">
         <v/>
@@ -5048,14 +5054,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['103811母豬資料不在資料庫中']</t>
+          <t>['158512母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>1410-4</t>
+          <t>&lt;89&gt;</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5063,11 +5069,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>21L163610</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="E143" t="n">
         <v/>
@@ -5080,14 +5086,14 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['141004母豬資料不在資料庫中']</t>
+          <t>['89母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>1424-4</t>
+          <t>1978-5</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5095,11 +5101,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="E144" t="n">
         <v/>
@@ -5112,14 +5118,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['142404母豬資料不在資料庫中']</t>
+          <t>['197805母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>1988-1</t>
+          <t>1215-2</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5127,11 +5133,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>21Y163704</t>
+          <t>22L183206</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="E145" t="n">
         <v/>
@@ -5144,14 +5150,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['198801母豬資料不在資料庫中']</t>
+          <t>['121502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>1244-2</t>
+          <t>1802-2</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5159,11 +5165,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45100</v>
+        <v>45096</v>
       </c>
       <c r="E146" t="n">
         <v/>
@@ -5176,14 +5182,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['124402母豬資料不在資料庫中']</t>
+          <t>['180202母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>1985-2</t>
+          <t>1247-3</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5191,11 +5197,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>22Y193106</t>
+          <t>22L183206</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45100</v>
+        <v>45096</v>
       </c>
       <c r="E147" t="n">
         <v/>
@@ -5208,14 +5214,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>['198502母豬資料不在資料庫中']</t>
+          <t>['124703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>&lt;95&gt;</t>
+          <t>501-8</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5223,11 +5229,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="E148" t="n">
         <v/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['95母豬資料不在資料庫中']</t>
+          <t>['50108母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>1008-8</t>
+          <t>1967-3</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5255,11 +5261,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>22Y191309</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="E149" t="n">
         <v/>
@@ -5272,14 +5278,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>['100808母豬資料不在資料庫中']</t>
+          <t>['196703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>500-1</t>
+          <t>1038-11</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5287,11 +5293,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>22L185708</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="E150" t="n">
         <v/>
@@ -5304,14 +5310,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>['50001母豬資料不在資料庫中']</t>
+          <t>['103811母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>1230-3</t>
+          <t>1410-4</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5319,11 +5325,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>22L185708</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="E151" t="n">
         <v/>
@@ -5336,58 +5342,62 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>['123003母豬資料不在資料庫中']</t>
+          <t>['141004母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>1004-4</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1140-4</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v/>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>20Y151509</t>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="E152" t="n">
         <v/>
       </c>
-      <c r="F152" t="n">
-        <v/>
-      </c>
-      <c r="G152" t="n">
-        <v/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['100404母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>1807-3</t>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1213-4</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v/>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>20L141507</t>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="E153" t="n">
         <v/>
@@ -5400,26 +5410,26 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['180703母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>1992-7</t>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1906-2</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v/>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>22Y188305</t>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="E154" t="n">
         <v/>
@@ -5432,14 +5442,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['199207母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>1013-3</t>
+          <t>1424-4</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5447,11 +5457,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45109</v>
+        <v>45099</v>
       </c>
       <c r="E155" t="n">
         <v/>
@@ -5464,14 +5474,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['101303母豬資料不在資料庫中']</t>
+          <t>['142404母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>1984-3</t>
+          <t>1988-1</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5479,11 +5489,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>21Y163704</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45109</v>
+        <v>45099</v>
       </c>
       <c r="E156" t="n">
         <v/>
@@ -5496,14 +5506,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['198403母豬資料不在資料庫中']</t>
+          <t>['198801母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>1006-2</t>
+          <t>1244-2</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -5511,11 +5521,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>20L149412</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45109</v>
+        <v>45100</v>
       </c>
       <c r="E157" t="n">
         <v/>
@@ -5528,14 +5538,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>['100602母豬資料不在資料庫中']</t>
+          <t>['124402母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>1003-1</t>
+          <t>1985-2</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5543,35 +5553,31 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>23Y187305</t>
+          <t>22Y193106</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45109</v>
+        <v>45100</v>
       </c>
       <c r="E158" t="n">
         <v/>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F158" t="n">
+        <v/>
+      </c>
+      <c r="G158" t="n">
+        <v/>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>['100301母豬資料不在資料庫中']</t>
+          <t>['198502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>1199-6</t>
+          <t>&lt;95&gt;</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5579,11 +5585,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45110</v>
+        <v>45103</v>
       </c>
       <c r="E159" t="n">
         <v/>
@@ -5596,14 +5602,14 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['119906母豬資料不在資料庫中']</t>
+          <t>['95母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>1998-3</t>
+          <t>1008-8</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5611,11 +5617,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>21Y175804</t>
+          <t>22Y191309</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45110</v>
+        <v>45103</v>
       </c>
       <c r="E160" t="n">
         <v/>
@@ -5628,14 +5634,14 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>['199803母豬資料不在資料庫中']</t>
+          <t>['100808母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>1025-2</t>
+          <t>500-1</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5643,47 +5649,43 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>21Y175804</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45110</v>
+        <v>45104</v>
       </c>
       <c r="E161" t="n">
         <v/>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F161" t="n">
+        <v/>
+      </c>
+      <c r="G161" t="n">
+        <v/>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['102502母豬資料不在資料庫中']</t>
+          <t>['50001母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>115-1</t>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1809-3</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v/>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>21L163610</t>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="E162" t="n">
         <v/>
@@ -5696,26 +5698,26 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['11501母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>1713-5</t>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1177-2</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v/>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>22Y188305</t>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="E163" t="n">
         <v/>
@@ -5728,26 +5730,26 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>['171305母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>&lt;239&gt;</t>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1578-1</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v/>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>21L163610</t>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="E164" t="n">
         <v/>
@@ -5760,26 +5762,26 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>['239母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>1010-4</t>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1131-1</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v/>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>21L163610</t>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45111</v>
+        <v>45104</v>
       </c>
       <c r="E165" t="n">
         <v/>
@@ -5792,14 +5794,14 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['101004母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>1007-2</t>
+          <t>1230-3</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -5807,11 +5809,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>21L166315</t>
+          <t>22L185708</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45112</v>
+        <v>45104</v>
       </c>
       <c r="E166" t="n">
         <v/>
@@ -5824,14 +5826,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['100702母豬資料不在資料庫中']</t>
+          <t>['123003母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>&lt;240&gt;</t>
+          <t>1004-4</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -5839,11 +5841,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>20Y151509</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45113</v>
+        <v>45105</v>
       </c>
       <c r="E167" t="n">
         <v/>
@@ -5856,14 +5858,14 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>['240母豬資料不在資料庫中']</t>
+          <t>['100404母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>1020-7</t>
+          <t>1807-3</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -5871,11 +5873,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45113</v>
+        <v>45105</v>
       </c>
       <c r="E168" t="n">
         <v/>
@@ -5888,14 +5890,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>['102007母豬資料不在資料庫中']</t>
+          <t>['180703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>1958-1</t>
+          <t>1992-7</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -5903,11 +5905,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>22Y185905</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45114</v>
+        <v>45106</v>
       </c>
       <c r="E169" t="n">
         <v/>
@@ -5920,14 +5922,14 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['195801母豬資料不在資料庫中']</t>
+          <t>['199207母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>1023-1</t>
+          <t>1013-3</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -5935,11 +5937,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>21L180905</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45115</v>
+        <v>45109</v>
       </c>
       <c r="E170" t="n">
         <v/>
@@ -5952,14 +5954,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>['102301母豬資料不在資料庫中']</t>
+          <t>['101303母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>1583-3</t>
+          <t>1984-3</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -5967,11 +5969,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>20L145710</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="E171" t="n">
         <v/>
@@ -5984,14 +5986,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['158303母豬資料不在資料庫中']</t>
+          <t>['198403母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>&lt;94&gt;</t>
+          <t>1006-2</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -5999,11 +6001,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>20L145710</t>
+          <t>20L149412</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="E172" t="n">
         <v/>
@@ -6016,14 +6018,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['94母豬資料不在資料庫中']</t>
+          <t>['100602母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>1260-9</t>
+          <t>1003-1</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -6031,31 +6033,35 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>22L191212</t>
+          <t>23Y187305</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="E173" t="n">
         <v/>
       </c>
-      <c r="F173" t="n">
-        <v/>
-      </c>
-      <c r="G173" t="n">
-        <v/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['126009母豬資料不在資料庫中']</t>
+          <t>['100301母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>922-1</t>
+          <t>1199-6</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -6063,35 +6069,31 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45117</v>
+        <v>45110</v>
       </c>
       <c r="E174" t="n">
         <v/>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F174" t="n">
+        <v/>
+      </c>
+      <c r="G174" t="n">
+        <v/>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['92201母豬資料不在資料庫中']</t>
+          <t>['119906母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>&lt;92&gt;</t>
+          <t>1998-3</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6099,11 +6101,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>22L191212</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45117</v>
+        <v>45110</v>
       </c>
       <c r="E175" t="n">
         <v/>
@@ -6116,14 +6118,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['92母豬資料不在資料庫中']</t>
+          <t>['199803母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>1092-1</t>
+          <t>1025-2</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -6131,31 +6133,35 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>22L191212</t>
+          <t>21Y175804</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45117</v>
+        <v>45110</v>
       </c>
       <c r="E176" t="n">
         <v/>
       </c>
-      <c r="F176" t="n">
-        <v/>
-      </c>
-      <c r="G176" t="n">
-        <v/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>['109201母豬資料不在資料庫中']</t>
+          <t>['102502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>1012-4</t>
+          <t>115-1</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -6163,35 +6169,31 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>20L145710</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45117</v>
+        <v>45111</v>
       </c>
       <c r="E177" t="n">
         <v/>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>未配上</t>
-        </is>
+      <c r="F177" t="n">
+        <v/>
+      </c>
+      <c r="G177" t="n">
+        <v/>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>['101204母豬資料不在資料庫中']</t>
+          <t>['11501母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>1002-2</t>
+          <t>1713-5</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -6199,11 +6201,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>22Y188305</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45117</v>
+        <v>45111</v>
       </c>
       <c r="E178" t="n">
         <v/>
@@ -6216,46 +6218,50 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['100202母豬資料不在資料庫中']</t>
+          <t>['171305母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>1008-6</t>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1891-2</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v/>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>22Y194412</t>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45117</v>
+        <v>45111</v>
       </c>
       <c r="E179" t="n">
         <v/>
       </c>
-      <c r="F179" t="n">
-        <v/>
-      </c>
-      <c r="G179" t="n">
-        <v/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['100806母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>1020-6</t>
+          <t>&lt;239&gt;</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -6263,11 +6269,11 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>22Y194412</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45117</v>
+        <v>45111</v>
       </c>
       <c r="E180" t="n">
         <v/>
@@ -6280,26 +6286,26 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['102006母豬資料不在資料庫中']</t>
+          <t>['239母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>1040-2</t>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1067-3</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v/>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>20L145710</t>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45117</v>
+        <v>45111</v>
       </c>
       <c r="E181" t="n">
         <v/>
@@ -6312,14 +6318,14 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['104002母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>1313-3</t>
+          <t>1010-4</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6327,11 +6333,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>22L184811</t>
+          <t>21L163610</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45118</v>
+        <v>45111</v>
       </c>
       <c r="E182" t="n">
         <v/>
@@ -6344,14 +6350,14 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['131303母豬資料不在資料庫中']</t>
+          <t>['101004母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>1020-6</t>
+          <t>1007-2</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6359,11 +6365,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>21L166315</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45118</v>
+        <v>45112</v>
       </c>
       <c r="E183" t="n">
         <v/>
@@ -6376,14 +6382,14 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['102006母豬資料不在資料庫中']</t>
+          <t>['100702母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>523-2</t>
+          <t>&lt;240&gt;</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6391,11 +6397,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45118</v>
+        <v>45113</v>
       </c>
       <c r="E184" t="n">
         <v/>
@@ -6408,14 +6414,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['52302母豬資料不在資料庫中']</t>
+          <t>['240母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>1554-1</t>
+          <t>1020-7</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -6423,11 +6429,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45118</v>
+        <v>45113</v>
       </c>
       <c r="E185" t="n">
         <v/>
@@ -6440,14 +6446,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['155401母豬資料不在資料庫中']</t>
+          <t>['102007母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>1921-8</t>
+          <t>1958-1</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6455,11 +6461,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>20L141507</t>
+          <t>22Y185905</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45118</v>
+        <v>45114</v>
       </c>
       <c r="E186" t="n">
         <v/>
@@ -6472,14 +6478,14 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['192108母豬資料不在資料庫中']</t>
+          <t>['195801母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>1025-4</t>
+          <t>1023-1</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6487,11 +6493,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1637-4</t>
+          <t>21L180905</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45121</v>
+        <v>45115</v>
       </c>
       <c r="E187" t="n">
         <v/>
@@ -6504,26 +6510,26 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['102504母豬資料不在資料庫中']</t>
+          <t>['102301母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>1211</t>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1430-3</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v/>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>1494-12</t>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>22L191212</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45124</v>
+        <v>45116</v>
       </c>
       <c r="E188" t="n">
         <v/>
@@ -6536,26 +6542,26 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['1211母豬資料不在資料庫中']</t>
+          <t>['191212公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>1974-1</t>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1552-2</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v/>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>1415-7</t>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45124</v>
+        <v>45117</v>
       </c>
       <c r="E189" t="n">
         <v/>
@@ -6568,14 +6574,14 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['197401母豬資料不在資料庫中']</t>
+          <t>['197006公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>1695-2</t>
+          <t>1583-3</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -6583,11 +6589,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1931-6</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45124</v>
+        <v>45117</v>
       </c>
       <c r="E190" t="n">
         <v/>
@@ -6600,14 +6606,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['169502母豬資料不在資料庫中']</t>
+          <t>['158303母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>909-5</t>
+          <t>&lt;94&gt;</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -6615,11 +6621,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1415-7</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45124</v>
+        <v>45117</v>
       </c>
       <c r="E191" t="n">
         <v/>
@@ -6632,14 +6638,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['90905母豬資料不在資料庫中']</t>
+          <t>['94母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>1276-6</t>
+          <t>1260-9</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -6647,11 +6653,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1931-6</t>
+          <t>22L191212</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45124</v>
+        <v>45117</v>
       </c>
       <c r="E192" t="n">
         <v/>
@@ -6664,26 +6670,26 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['127606母豬資料不在資料庫中']</t>
+          <t>['126009母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>1027-3</t>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1337-8</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v/>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>1415-7</t>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45124</v>
+        <v>45117</v>
       </c>
       <c r="E193" t="n">
         <v/>
@@ -6696,14 +6702,14 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['102703母豬資料不在資料庫中']</t>
+          <t>['197006公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>1806-2</t>
+          <t>922-1</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -6711,31 +6717,35 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1831-8</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45125</v>
+        <v>45117</v>
       </c>
       <c r="E194" t="n">
         <v/>
       </c>
-      <c r="F194" t="n">
-        <v/>
-      </c>
-      <c r="G194" t="n">
-        <v/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['180602母豬資料不在資料庫中']</t>
+          <t>['92201母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>737-4</t>
+          <t>&lt;92&gt;</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -6743,11 +6753,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1831-8</t>
+          <t>22L191212</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45125</v>
+        <v>45117</v>
       </c>
       <c r="E195" t="n">
         <v/>
@@ -6760,26 +6770,26 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['73704母豬資料不在資料庫中']</t>
+          <t>['92母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>&lt;210&gt;</t>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1500-7</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v/>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>1831-8</t>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>22L197006</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45125</v>
+        <v>45117</v>
       </c>
       <c r="E196" t="n">
         <v/>
@@ -6792,14 +6802,14 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['210母豬資料不在資料庫中']</t>
+          <t>['197006公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>1192-2</t>
+          <t>1092-1</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6807,11 +6817,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1636-10</t>
+          <t>22L191212</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45125</v>
+        <v>45117</v>
       </c>
       <c r="E197" t="n">
         <v/>
@@ -6824,14 +6834,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['119202母豬資料不在資料庫中']</t>
+          <t>['109201母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>&lt;219&gt;</t>
+          <t>1012-4</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6839,31 +6849,35 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1832-6</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45126</v>
+        <v>45117</v>
       </c>
       <c r="E198" t="n">
         <v/>
       </c>
-      <c r="F198" t="n">
-        <v/>
-      </c>
-      <c r="G198" t="n">
-        <v/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>未配上</t>
+        </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['219母豬資料不在資料庫中']</t>
+          <t>['101204母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>1818-8</t>
+          <t>1002-2</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6871,11 +6885,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1663-15桃燕</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45127</v>
+        <v>45117</v>
       </c>
       <c r="E199" t="n">
         <v/>
@@ -6888,14 +6902,14 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['181808母豬資料不在資料庫中']</t>
+          <t>['100202母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>530-12</t>
+          <t>1008-6</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6903,11 +6917,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1913-9金王</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45127</v>
+        <v>45117</v>
       </c>
       <c r="E200" t="n">
         <v/>
@@ -6920,14 +6934,14 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['53012母豬資料不在資料庫中']</t>
+          <t>['100806母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>1003-10</t>
+          <t>1020-6</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6935,11 +6949,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1913-9</t>
+          <t>22Y194412</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45128</v>
+        <v>45117</v>
       </c>
       <c r="E201" t="n">
         <v/>
@@ -6952,14 +6966,14 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['100310母豬資料不在資料庫中']</t>
+          <t>['102006母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>1750-2</t>
+          <t>1040-2</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6967,11 +6981,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1758-4王德</t>
+          <t>20L145710</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45131</v>
+        <v>45117</v>
       </c>
       <c r="E202" t="n">
         <v/>
@@ -6984,14 +6998,14 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['175002母豬資料不在資料庫中']</t>
+          <t>['104002母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>721-8</t>
+          <t>1313-3</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6999,11 +7013,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1970-6楚桃</t>
+          <t>22L184811</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E203" t="n">
         <v/>
@@ -7016,14 +7030,14 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['72108母豬資料不在資料庫中']</t>
+          <t>['131303母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>1735-3</t>
+          <t>1020-6</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -7031,11 +7045,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1970-6</t>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E204" t="n">
         <v/>
@@ -7048,26 +7062,26 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['173503母豬資料不在資料庫中']</t>
+          <t>['102006母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>1802-3</t>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1425-6</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v/>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>1758-4</t>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>1972-6王地</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E205" t="n">
         <v/>
@@ -7080,14 +7094,14 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['180203母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>&lt;213&gt;</t>
+          <t>523-2</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -7095,11 +7109,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1970-6</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E206" t="n">
         <v/>
@@ -7112,14 +7126,14 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['213母豬資料不在資料庫中']</t>
+          <t>['52302母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>1371-5</t>
+          <t>1554-1</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -7127,11 +7141,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1515-9地合</t>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E207" t="n">
         <v/>
@@ -7144,26 +7158,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['137105母豬資料不在資料庫中']</t>
+          <t>['155401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>902-3</t>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1544-2</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v/>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>1970-6</t>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="E208" t="n">
         <v/>
@@ -7176,14 +7190,14 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['90203母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>&lt;230&gt;</t>
+          <t>1921-8</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -7191,11 +7205,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1848-11</t>
+          <t>20L141507</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45132</v>
+        <v>45118</v>
       </c>
       <c r="E209" t="n">
         <v/>
@@ -7208,26 +7222,26 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['230母豬資料不在資料庫中']</t>
+          <t>['192108母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>593-3</t>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1267-14</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v/>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>1848-11</t>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45132</v>
+        <v>45118</v>
       </c>
       <c r="E210" t="n">
         <v/>
@@ -7240,14 +7254,14 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['59303母豬資料不在資料庫中']</t>
+          <t>['197206公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>&lt;208&gt;</t>
+          <t>1025-4</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -7255,11 +7269,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1809-5</t>
+          <t>1637-4</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45132</v>
+        <v>45121</v>
       </c>
       <c r="E211" t="n">
         <v/>
@@ -7272,14 +7286,14 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['208母豬資料不在資料庫中']</t>
+          <t>['102504母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>1500-8</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7287,11 +7301,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1848-11</t>
+          <t>1494-12</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45132</v>
+        <v>45124</v>
       </c>
       <c r="E212" t="n">
         <v/>
@@ -7304,14 +7318,14 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['150008母豬資料不在資料庫中']</t>
+          <t>['1211母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>1975-4</t>
+          <t>1974-1</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7319,11 +7333,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1873-5</t>
+          <t>1415-7</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45133</v>
+        <v>45124</v>
       </c>
       <c r="E213" t="n">
         <v/>
@@ -7336,14 +7350,14 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['197504母豬資料不在資料庫中']</t>
+          <t>['197401母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>1301-17</t>
+          <t>1695-2</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7351,11 +7365,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1873-5金地</t>
+          <t>1931-6</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45133</v>
+        <v>45124</v>
       </c>
       <c r="E214" t="n">
         <v/>
@@ -7368,14 +7382,14 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['130117母豬資料不在資料庫中']</t>
+          <t>['169502母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>1023-2</t>
+          <t>909-5</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7383,11 +7397,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1857-8</t>
+          <t>1415-7</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45134</v>
+        <v>45124</v>
       </c>
       <c r="E215" t="n">
         <v/>
@@ -7400,14 +7414,14 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['102302母豬資料不在資料庫中']</t>
+          <t>['90905母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>1020-6</t>
+          <t>1276-6</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7415,11 +7429,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1883-5</t>
+          <t>1931-6</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45136</v>
+        <v>45124</v>
       </c>
       <c r="E216" t="n">
         <v/>
@@ -7432,14 +7446,14 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['102006母豬資料不在資料庫中']</t>
+          <t>['127606母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>730-15</t>
+          <t>1027-3</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -7447,11 +7461,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1415-7楚愛</t>
+          <t>1415-7</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45137</v>
+        <v>45124</v>
       </c>
       <c r="E217" t="n">
         <v/>
@@ -7464,26 +7478,26 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['73015母豬資料不在資料庫中']</t>
+          <t>['102703母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>1001-2</t>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1963-3</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v/>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>1415-7</t>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>1636-10</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45137</v>
+        <v>45125</v>
       </c>
       <c r="E218" t="n">
         <v/>
@@ -7496,14 +7510,14 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['100102母豬資料不在資料庫中']</t>
+          <t>['163610公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>1022-5</t>
+          <t>1806-2</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -7511,11 +7525,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1415-7</t>
+          <t>1831-8</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45137</v>
+        <v>45125</v>
       </c>
       <c r="E219" t="n">
         <v/>
@@ -7528,14 +7542,14 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['102205母豬資料不在資料庫中']</t>
+          <t>['180602母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>883-6</t>
+          <t>737-4</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -7543,11 +7557,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>1831-8</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45138</v>
+        <v>45125</v>
       </c>
       <c r="E220" t="n">
         <v/>
@@ -7560,14 +7574,14 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['88306母豬資料不在資料庫中']</t>
+          <t>['73704母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>&lt;207&gt;</t>
+          <t>&lt;210&gt;</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -7575,11 +7589,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>1831-8</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45138</v>
+        <v>45125</v>
       </c>
       <c r="E221" t="n">
         <v/>
@@ -7592,14 +7606,14 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['207母豬資料不在資料庫中']</t>
+          <t>['210母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>1663-4</t>
+          <t>1192-2</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -7607,11 +7621,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1494-12傑齊</t>
+          <t>1636-10</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45138</v>
+        <v>45125</v>
       </c>
       <c r="E222" t="n">
         <v/>
@@ -7624,14 +7638,14 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['166304母豬資料不在資料庫中']</t>
+          <t>['119202母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>1580-2</t>
+          <t>&lt;219&gt;</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -7639,11 +7653,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1972-6</t>
+          <t>1832-6</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45138</v>
+        <v>45126</v>
       </c>
       <c r="E223" t="n">
         <v/>
@@ -7656,14 +7670,14 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['158002母豬資料不在資料庫中']</t>
+          <t>['219母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>1548-6</t>
+          <t>1818-8</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -7671,11 +7685,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1494-12傑齊</t>
+          <t>1663-15桃燕</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45138</v>
+        <v>45127</v>
       </c>
       <c r="E224" t="n">
         <v/>
@@ -7688,14 +7702,14 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['154806母豬資料不在資料庫中']</t>
+          <t>['181808母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>1756-2</t>
+          <t>530-12</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -7707,7 +7721,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45139</v>
+        <v>45127</v>
       </c>
       <c r="E225" t="n">
         <v/>
@@ -7720,14 +7734,14 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['175602母豬資料不在資料庫中']</t>
+          <t>['53012母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>1640-3</t>
+          <t>1003-10</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -7735,11 +7749,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1636-10傑仁</t>
+          <t>1913-9</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45139</v>
+        <v>45128</v>
       </c>
       <c r="E226" t="n">
         <v/>
@@ -7752,14 +7766,14 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['164003母豬資料不在資料庫中']</t>
+          <t>['100310母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>1933-1</t>
+          <t>1750-2</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -7767,11 +7781,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1832-6楚傑</t>
+          <t>1758-4王德</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45139</v>
+        <v>45131</v>
       </c>
       <c r="E227" t="n">
         <v/>
@@ -7784,14 +7798,14 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['193301母豬資料不在資料庫中']</t>
+          <t>['175002母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>1326-3</t>
+          <t>721-8</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -7799,11 +7813,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1832-6楚傑</t>
+          <t>1970-6楚桃</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45139</v>
+        <v>45131</v>
       </c>
       <c r="E228" t="n">
         <v/>
@@ -7816,14 +7830,14 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['132603母豬資料不在資料庫中']</t>
+          <t>['72108母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>1729-8</t>
+          <t>1735-3</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -7831,11 +7845,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1832-6</t>
+          <t>1970-6</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45139</v>
+        <v>45131</v>
       </c>
       <c r="E229" t="n">
         <v/>
@@ -7848,14 +7862,14 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['172908母豬資料不在資料庫中']</t>
+          <t>['173503母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>1510-3</t>
+          <t>1802-3</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -7863,11 +7877,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1636-10</t>
+          <t>1758-4</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45139</v>
+        <v>45131</v>
       </c>
       <c r="E230" t="n">
         <v/>
@@ -7880,14 +7894,14 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['151003母豬資料不在資料庫中']</t>
+          <t>['180203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>1809-1</t>
+          <t>&lt;213&gt;</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -7895,11 +7909,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1913-9</t>
+          <t>1970-6</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45139</v>
+        <v>45131</v>
       </c>
       <c r="E231" t="n">
         <v/>
@@ -7912,26 +7926,26 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['180901母豬資料不在資料庫中']</t>
+          <t>['213母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>1025-2</t>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1552-3</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v/>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>1944-12</t>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>1970-6楚桃</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45140</v>
+        <v>45131</v>
       </c>
       <c r="E232" t="n">
         <v/>
@@ -7944,14 +7958,14 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['102502母豬資料不在資料庫中']</t>
+          <t>['197006公豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>1115-2</t>
+          <t>1371-5</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -7959,11 +7973,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1944-12</t>
+          <t>1515-9地合</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45140</v>
+        <v>45131</v>
       </c>
       <c r="E233" t="n">
         <v/>
@@ -7976,14 +7990,14 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['111502母豬資料不在資料庫中']</t>
+          <t>['137105母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>536-16</t>
+          <t>902-3</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -7991,11 +8005,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1944-12地趙</t>
+          <t>1970-6</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45140</v>
+        <v>45131</v>
       </c>
       <c r="E234" t="n">
         <v/>
@@ -8008,14 +8022,14 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['53616母豬資料不在資料庫中']</t>
+          <t>['90203母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>1791-1</t>
+          <t>&lt;230&gt;</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -8023,11 +8037,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1637-4趙王</t>
+          <t>1848-11</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45141</v>
+        <v>45132</v>
       </c>
       <c r="E235" t="n">
         <v/>
@@ -8040,14 +8054,14 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['179101母豬資料不在資料庫中']</t>
+          <t>['230母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>1000-3</t>
+          <t>593-3</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -8055,11 +8069,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1415-7</t>
+          <t>1848-11</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45141</v>
+        <v>45132</v>
       </c>
       <c r="E236" t="n">
         <v/>
@@ -8072,14 +8086,14 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['100003母豬資料不在資料庫中']</t>
+          <t>['59303母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>1628-7</t>
+          <t>&lt;208&gt;</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -8087,11 +8101,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1415-7</t>
+          <t>1809-5</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45142</v>
+        <v>45132</v>
       </c>
       <c r="E237" t="n">
         <v/>
@@ -8104,14 +8118,14 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['162807母豬資料不在資料庫中']</t>
+          <t>['208母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>1982-4</t>
+          <t>1500-8</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -8119,11 +8133,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1931-6</t>
+          <t>1848-11</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45145</v>
+        <v>45132</v>
       </c>
       <c r="E238" t="n">
         <v/>
@@ -8136,14 +8150,14 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['198204母豬資料不在資料庫中']</t>
+          <t>['150008母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>1684-3</t>
+          <t>1975-4</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -8151,11 +8165,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1931-6合趙</t>
+          <t>1873-5</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45145</v>
+        <v>45133</v>
       </c>
       <c r="E239" t="n">
         <v/>
@@ -8168,14 +8182,14 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['168403母豬資料不在資料庫中']</t>
+          <t>['197504母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>804-18</t>
+          <t>1301-17</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -8183,11 +8197,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1663-15桃燕</t>
+          <t>1873-5金地</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45146</v>
+        <v>45133</v>
       </c>
       <c r="E240" t="n">
         <v/>
@@ -8200,14 +8214,14 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['80418母豬資料不在資料庫中']</t>
+          <t>['130117母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>1093-3</t>
+          <t>1023-2</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -8215,11 +8229,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1663-15</t>
+          <t>1857-8</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45146</v>
+        <v>45134</v>
       </c>
       <c r="E241" t="n">
         <v/>
@@ -8232,14 +8246,14 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['109303母豬資料不在資料庫中']</t>
+          <t>['102302母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>1586-5</t>
+          <t>1020-6</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -8247,11 +8261,11 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1831-8</t>
+          <t>1883-5</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45146</v>
+        <v>45136</v>
       </c>
       <c r="E242" t="n">
         <v/>
@@ -8264,14 +8278,14 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['158605母豬資料不在資料庫中']</t>
+          <t>['102006母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>1661-2</t>
+          <t>730-15</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -8279,11 +8293,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1663-15</t>
+          <t>1415-7楚愛</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45146</v>
+        <v>45137</v>
       </c>
       <c r="E243" t="n">
         <v/>
@@ -8296,14 +8310,14 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['166102母豬資料不在資料庫中']</t>
+          <t>['73015母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>1766-1</t>
+          <t>1001-2</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8311,11 +8325,11 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1831-8</t>
+          <t>1415-7</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45146</v>
+        <v>45137</v>
       </c>
       <c r="E244" t="n">
         <v/>
@@ -8328,37 +8342,997 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['176601母豬資料不在資料庫中']</t>
+          <t>['100102母豬資料不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
+          <t>1022-5</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v/>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1415-7</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="E245" t="n">
+        <v/>
+      </c>
+      <c r="F245" t="n">
+        <v/>
+      </c>
+      <c r="G245" t="n">
+        <v/>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>['102205母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1893-3</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v/>
+      </c>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>1985-5仁桃</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E246" t="n">
+        <v/>
+      </c>
+      <c r="F246" t="n">
+        <v/>
+      </c>
+      <c r="G246" t="n">
+        <v/>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>['198505公豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1927-5</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v/>
+      </c>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>1972-6</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E247" t="n">
+        <v/>
+      </c>
+      <c r="F247" t="n">
+        <v/>
+      </c>
+      <c r="G247" t="n">
+        <v/>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>['197206公豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>883-6</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v/>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1972-6</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E248" t="n">
+        <v/>
+      </c>
+      <c r="F248" t="n">
+        <v/>
+      </c>
+      <c r="G248" t="n">
+        <v/>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>['88306母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>&lt;207&gt;</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v/>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1972-6</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E249" t="n">
+        <v/>
+      </c>
+      <c r="F249" t="n">
+        <v/>
+      </c>
+      <c r="G249" t="n">
+        <v/>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>['207母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>1663-4</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v/>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1494-12傑齊</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E250" t="n">
+        <v/>
+      </c>
+      <c r="F250" t="n">
+        <v/>
+      </c>
+      <c r="G250" t="n">
+        <v/>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>['166304母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1566-4</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v/>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>1985-5</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E251" t="n">
+        <v/>
+      </c>
+      <c r="F251" t="n">
+        <v/>
+      </c>
+      <c r="G251" t="n">
+        <v/>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>['198505公豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>1580-2</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v/>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1972-6</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E252" t="n">
+        <v/>
+      </c>
+      <c r="F252" t="n">
+        <v/>
+      </c>
+      <c r="G252" t="n">
+        <v/>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>['158002母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>1548-6</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v/>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>1494-12傑齊</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E253" t="n">
+        <v/>
+      </c>
+      <c r="F253" t="n">
+        <v/>
+      </c>
+      <c r="G253" t="n">
+        <v/>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>['154806母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>1756-2</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v/>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1913-9金王</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E254" t="n">
+        <v/>
+      </c>
+      <c r="F254" t="n">
+        <v/>
+      </c>
+      <c r="G254" t="n">
+        <v/>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>['175602母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1797-5</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v/>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>1636-10傑仁</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E255" t="n">
+        <v/>
+      </c>
+      <c r="F255" t="n">
+        <v/>
+      </c>
+      <c r="G255" t="n">
+        <v/>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>['163610公豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>1640-3</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v/>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1636-10傑仁</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E256" t="n">
+        <v/>
+      </c>
+      <c r="F256" t="n">
+        <v/>
+      </c>
+      <c r="G256" t="n">
+        <v/>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>['164003母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>1933-1</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v/>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1832-6楚傑</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E257" t="n">
+        <v/>
+      </c>
+      <c r="F257" t="n">
+        <v/>
+      </c>
+      <c r="G257" t="n">
+        <v/>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>['193301母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>1326-3</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v/>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1832-6楚傑</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E258" t="n">
+        <v/>
+      </c>
+      <c r="F258" t="n">
+        <v/>
+      </c>
+      <c r="G258" t="n">
+        <v/>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>['132603母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>1729-8</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v/>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>1832-6</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E259" t="n">
+        <v/>
+      </c>
+      <c r="F259" t="n">
+        <v/>
+      </c>
+      <c r="G259" t="n">
+        <v/>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>['172908母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>1510-3</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v/>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1636-10</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E260" t="n">
+        <v/>
+      </c>
+      <c r="F260" t="n">
+        <v/>
+      </c>
+      <c r="G260" t="n">
+        <v/>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>['151003母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>1809-1</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v/>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>1913-9</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="E261" t="n">
+        <v/>
+      </c>
+      <c r="F261" t="n">
+        <v/>
+      </c>
+      <c r="G261" t="n">
+        <v/>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>['180901母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>1025-2</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v/>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1944-12</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="E262" t="n">
+        <v/>
+      </c>
+      <c r="F262" t="n">
+        <v/>
+      </c>
+      <c r="G262" t="n">
+        <v/>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>['102502母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>1115-2</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v/>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1944-12</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="E263" t="n">
+        <v/>
+      </c>
+      <c r="F263" t="n">
+        <v/>
+      </c>
+      <c r="G263" t="n">
+        <v/>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>['111502母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>536-16</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v/>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1944-12地趙</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="E264" t="n">
+        <v/>
+      </c>
+      <c r="F264" t="n">
+        <v/>
+      </c>
+      <c r="G264" t="n">
+        <v/>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>['53616母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>1791-1</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v/>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1637-4趙王</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="E265" t="n">
+        <v/>
+      </c>
+      <c r="F265" t="n">
+        <v/>
+      </c>
+      <c r="G265" t="n">
+        <v/>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>['179101母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>1000-3</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v/>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1415-7</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="E266" t="n">
+        <v/>
+      </c>
+      <c r="F266" t="n">
+        <v/>
+      </c>
+      <c r="G266" t="n">
+        <v/>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>['100003母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>1628-7</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v/>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>1415-7</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E267" t="n">
+        <v/>
+      </c>
+      <c r="F267" t="n">
+        <v/>
+      </c>
+      <c r="G267" t="n">
+        <v/>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>['162807母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>1982-4</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v/>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1931-6</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="E268" t="n">
+        <v/>
+      </c>
+      <c r="F268" t="n">
+        <v/>
+      </c>
+      <c r="G268" t="n">
+        <v/>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>['198204母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>1684-3</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v/>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>1931-6合趙</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="E269" t="n">
+        <v/>
+      </c>
+      <c r="F269" t="n">
+        <v/>
+      </c>
+      <c r="G269" t="n">
+        <v/>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>['168403母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>804-18</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v/>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>1663-15桃燕</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E270" t="n">
+        <v/>
+      </c>
+      <c r="F270" t="n">
+        <v/>
+      </c>
+      <c r="G270" t="n">
+        <v/>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>['80418母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>1093-3</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v/>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1663-15</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E271" t="n">
+        <v/>
+      </c>
+      <c r="F271" t="n">
+        <v/>
+      </c>
+      <c r="G271" t="n">
+        <v/>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>['109303母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>1586-5</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v/>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1831-8</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E272" t="n">
+        <v/>
+      </c>
+      <c r="F272" t="n">
+        <v/>
+      </c>
+      <c r="G272" t="n">
+        <v/>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>['158605母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>1661-2</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v/>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1663-15</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E273" t="n">
+        <v/>
+      </c>
+      <c r="F273" t="n">
+        <v/>
+      </c>
+      <c r="G273" t="n">
+        <v/>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>['166102母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>1766-1</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v/>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1831-8</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="E274" t="n">
+        <v/>
+      </c>
+      <c r="F274" t="n">
+        <v/>
+      </c>
+      <c r="G274" t="n">
+        <v/>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>['176601母豬資料不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
           <t>1394-2</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v/>
-      </c>
-      <c r="C245" t="inlineStr">
+      <c r="B275" t="n">
+        <v/>
+      </c>
+      <c r="C275" t="inlineStr">
         <is>
           <t>1831-8</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D275" s="2" t="n">
         <v>45146</v>
       </c>
-      <c r="E245" t="n">
-        <v/>
-      </c>
-      <c r="F245" t="n">
-        <v/>
-      </c>
-      <c r="G245" t="n">
-        <v/>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="E275" t="n">
+        <v/>
+      </c>
+      <c r="F275" t="n">
+        <v/>
+      </c>
+      <c r="G275" t="n">
+        <v/>
+      </c>
+      <c r="H275" t="inlineStr">
         <is>
           <t>['139402母豬資料不在資料庫中']</t>
         </is>
